--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_bar.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F870D-C349-4BFB-8380-2072FA5AC0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16160" windowHeight="17780"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
     <sheet name="Continuation" sheetId="3" r:id="rId2"/>
     <sheet name="Index" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,361 +115,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -476,251 +156,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -731,61 +169,17 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1043,19 +437,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
@@ -1089,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1097,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1105,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1113,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1129,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.366</v>
+        <v>2.1412742372512081</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1161,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1169,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.166</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1177,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>28.522</v>
+        <v>28.521999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1185,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1201,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1209,35 +603,33 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="20" ht="28.75" spans="1:2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1e-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -1405,25 +797,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.775" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:5">
       <c r="D1" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +848,7 @@
         <v>costff</v>
       </c>
       <c r="C3" t="str">
-        <f>IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
+        <f ca="1">IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B1</v>
       </c>
       <c r="D3">
@@ -1480,7 +870,7 @@
         <v>costre</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C4:C67" ca="1" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B2</v>
       </c>
       <c r="D4">
@@ -1502,7 +892,7 @@
         <v>dep</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B3</v>
       </c>
       <c r="D5">
@@ -1524,7 +914,7 @@
         <v>r</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B4</v>
       </c>
       <c r="D6">
@@ -1546,7 +936,7 @@
         <v>kff0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B5</v>
       </c>
       <c r="D7">
@@ -1568,7 +958,7 @@
         <v>kre0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B6</v>
       </c>
       <c r="D8">
@@ -1590,7 +980,7 @@
         <v>aff</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B7</v>
       </c>
       <c r="D9">
@@ -1612,7 +1002,7 @@
         <v>taxlim</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B8</v>
       </c>
       <c r="D10">
@@ -1634,7 +1024,7 @@
         <v>tfp1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B9</v>
       </c>
       <c r="D11">
@@ -1656,7 +1046,7 @@
         <v>phi</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B10</v>
       </c>
       <c r="D12">
@@ -1678,7 +1068,7 @@
         <v>fertsh</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B11</v>
       </c>
       <c r="D13">
@@ -1700,7 +1090,7 @@
         <v>bk</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B12</v>
       </c>
       <c r="D14">
@@ -1722,7 +1112,7 @@
         <v>bkf</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B13</v>
       </c>
       <c r="D15">
@@ -1744,7 +1134,7 @@
         <v>ben</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B14</v>
       </c>
       <c r="D16">
@@ -1766,7 +1156,7 @@
         <v>k0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B15</v>
       </c>
       <c r="D17">
@@ -1788,7 +1178,7 @@
         <v>kf0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B16</v>
       </c>
       <c r="D18">
@@ -1810,7 +1200,7 @@
         <v>debtqlim</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B17</v>
       </c>
       <c r="D19">
@@ -1832,7 +1222,7 @@
         <v>gcostsh</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B18</v>
       </c>
       <c r="D20">
@@ -1854,7 +1244,7 @@
         <v>pubgdpsh</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B19</v>
       </c>
       <c r="D21">
@@ -1876,7 +1266,7 @@
         <v>lowerbound</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Hardcode!B20</v>
       </c>
       <c r="D22">
@@ -1898,7 +1288,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D23" t="str">
@@ -1920,7 +1310,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D24" t="str">
@@ -1942,7 +1332,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D25" t="str">
@@ -1964,7 +1354,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -1986,7 +1376,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -2008,7 +1398,7 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -2030,7 +1420,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -2052,7 +1442,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -2074,7 +1464,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -2096,7 +1486,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -2118,7 +1508,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -2140,7 +1530,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -2162,7 +1552,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -2184,7 +1574,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -2206,7 +1596,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -2228,7 +1618,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -2250,7 +1640,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -2272,7 +1662,7 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -2294,7 +1684,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -2316,7 +1706,7 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -2338,7 +1728,7 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -2360,7 +1750,7 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -2382,7 +1772,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -2404,7 +1794,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -2426,7 +1816,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -2448,7 +1838,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -2470,7 +1860,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -2492,7 +1882,7 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -2514,7 +1904,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -2536,7 +1926,7 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -2558,7 +1948,7 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -2580,7 +1970,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -2602,7 +1992,7 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -2624,7 +2014,7 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -2646,7 +2036,7 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -2668,7 +2058,7 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -2690,7 +2080,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -2712,7 +2102,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -2734,7 +2124,7 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -2756,7 +2146,7 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -2778,7 +2168,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -2800,7 +2190,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -2822,7 +2212,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -2844,7 +2234,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -2866,7 +2256,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -2888,7 +2278,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C101" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C68:C101" ca="1" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -2910,7 +2300,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -2932,7 +2322,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -2954,7 +2344,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -2976,7 +2366,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -2998,7 +2388,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -3020,7 +2410,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -3042,7 +2432,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -3064,7 +2454,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -3086,7 +2476,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -3108,7 +2498,7 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -3130,7 +2520,7 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -3152,7 +2542,7 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -3174,7 +2564,7 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -3196,7 +2586,7 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -3218,7 +2608,7 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -3240,7 +2630,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -3262,7 +2652,7 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -3284,7 +2674,7 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D86" t="str">
@@ -3306,7 +2696,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D87" t="str">
@@ -3328,7 +2718,7 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -3350,7 +2740,7 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -3372,7 +2762,7 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -3394,7 +2784,7 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -3416,7 +2806,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -3438,7 +2828,7 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -3460,7 +2850,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -3482,7 +2872,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -3504,7 +2894,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -3526,7 +2916,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D97" t="str">
@@ -3548,7 +2938,7 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D98" t="str">
@@ -3570,7 +2960,7 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D99" t="str">
@@ -3592,7 +2982,7 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D100" t="str">
@@ -3614,7 +3004,7 @@
         <v/>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="D101" t="str">
@@ -3628,6 +3018,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_bar.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F870D-C349-4BFB-8380-2072FA5AC0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14100" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
     <sheet name="Continuation" sheetId="3" r:id="rId2"/>
     <sheet name="Index" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -115,25 +99,367 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,11 +482,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -168,18 +736,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -437,19 +1052,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
@@ -483,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -491,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.98099999999999998</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -499,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -507,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -523,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2.1412742372512081</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -555,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -563,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -571,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>28.521999999999998</v>
+        <v>28.522</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -579,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -595,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -603,33 +1218,36 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="20" ht="29.25" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>9.9999999999999995E-7</v>
+      <c r="B20" s="3">
+        <f>10^(-7)</f>
+        <v>1e-7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -797,23 +1415,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
         <v>21</v>
       </c>
@@ -848,7 +1468,7 @@
         <v>costff</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
+        <f>IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B1</v>
       </c>
       <c r="D3">
@@ -870,7 +1490,7 @@
         <v>costre</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" ca="1" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C4:C67" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B2</v>
       </c>
       <c r="D4">
@@ -892,7 +1512,7 @@
         <v>dep</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B3</v>
       </c>
       <c r="D5">
@@ -914,7 +1534,7 @@
         <v>r</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B4</v>
       </c>
       <c r="D6">
@@ -936,7 +1556,7 @@
         <v>kff0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B5</v>
       </c>
       <c r="D7">
@@ -958,7 +1578,7 @@
         <v>kre0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B6</v>
       </c>
       <c r="D8">
@@ -980,7 +1600,7 @@
         <v>aff</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B7</v>
       </c>
       <c r="D9">
@@ -1002,7 +1622,7 @@
         <v>taxlim</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B8</v>
       </c>
       <c r="D10">
@@ -1024,7 +1644,7 @@
         <v>tfp1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B9</v>
       </c>
       <c r="D11">
@@ -1046,7 +1666,7 @@
         <v>phi</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B10</v>
       </c>
       <c r="D12">
@@ -1068,7 +1688,7 @@
         <v>fertsh</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B11</v>
       </c>
       <c r="D13">
@@ -1090,7 +1710,7 @@
         <v>bk</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B12</v>
       </c>
       <c r="D14">
@@ -1112,7 +1732,7 @@
         <v>bkf</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B13</v>
       </c>
       <c r="D15">
@@ -1134,7 +1754,7 @@
         <v>ben</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B14</v>
       </c>
       <c r="D16">
@@ -1156,7 +1776,7 @@
         <v>k0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B15</v>
       </c>
       <c r="D17">
@@ -1178,7 +1798,7 @@
         <v>kf0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B16</v>
       </c>
       <c r="D18">
@@ -1200,7 +1820,7 @@
         <v>debtqlim</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B17</v>
       </c>
       <c r="D19">
@@ -1222,7 +1842,7 @@
         <v>gcostsh</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B18</v>
       </c>
       <c r="D20">
@@ -1244,7 +1864,7 @@
         <v>pubgdpsh</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B19</v>
       </c>
       <c r="D21">
@@ -1266,7 +1886,7 @@
         <v>lowerbound</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B20</v>
       </c>
       <c r="D22">
@@ -1288,7 +1908,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D23" t="str">
@@ -1310,7 +1930,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" t="str">
@@ -1332,7 +1952,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D25" t="str">
@@ -1354,7 +1974,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -1376,7 +1996,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -1398,7 +2018,7 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -1420,7 +2040,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -1442,7 +2062,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -1464,7 +2084,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -1486,7 +2106,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -1508,7 +2128,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -1530,7 +2150,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -1552,7 +2172,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -1574,7 +2194,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -1596,7 +2216,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -1618,7 +2238,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -1640,7 +2260,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -1662,7 +2282,7 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -1684,7 +2304,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -1706,7 +2326,7 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -1728,7 +2348,7 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -1750,7 +2370,7 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -1772,7 +2392,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -1794,7 +2414,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -1816,7 +2436,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -1838,7 +2458,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -1860,7 +2480,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -1882,7 +2502,7 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -1904,7 +2524,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -1926,7 +2546,7 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -1948,7 +2568,7 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -1970,7 +2590,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -1992,7 +2612,7 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -2014,7 +2634,7 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -2036,7 +2656,7 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -2058,7 +2678,7 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -2080,7 +2700,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -2102,7 +2722,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -2124,7 +2744,7 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -2146,7 +2766,7 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -2168,7 +2788,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -2190,7 +2810,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -2212,7 +2832,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -2234,7 +2854,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -2256,7 +2876,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -2278,7 +2898,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C101" ca="1" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" ref="C68:C101" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -2300,7 +2920,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -2322,7 +2942,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -2344,7 +2964,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -2366,7 +2986,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -2388,7 +3008,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -2410,7 +3030,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -2432,7 +3052,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -2454,7 +3074,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -2476,7 +3096,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -2498,7 +3118,7 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -2520,7 +3140,7 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -2542,7 +3162,7 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -2564,7 +3184,7 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -2586,7 +3206,7 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -2608,7 +3228,7 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -2630,7 +3250,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -2652,7 +3272,7 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -2674,7 +3294,7 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D86" t="str">
@@ -2696,7 +3316,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D87" t="str">
@@ -2718,7 +3338,7 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -2740,7 +3360,7 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -2762,7 +3382,7 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -2784,7 +3404,7 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -2806,7 +3426,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -2828,7 +3448,7 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -2850,7 +3470,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -2872,7 +3492,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -2894,7 +3514,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -2916,7 +3536,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D97" t="str">
@@ -2938,7 +3558,7 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D98" t="str">
@@ -2960,7 +3580,7 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D99" t="str">
@@ -2982,7 +3602,7 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D100" t="str">
@@ -3004,7 +3624,7 @@
         <v/>
       </c>
       <c r="C101" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D101" t="str">
@@ -3018,5 +3638,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_bar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="9990"/>
+    <workbookView windowWidth="15780" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1138,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.366</v>
+        <v>4.462</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.166</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="15" spans="1:2">
